--- a/data/휴인미 member 복사본.xlsx
+++ b/data/휴인미 member 복사본.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuns\OneDrive - 중앙대학교\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuns\H\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE1731-9E5B-4733-A811-B692D4FF8C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB13CC0-48C8-4425-BA79-3641F6154409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{BD768E22-9474-4B2F-914B-A959EA682A3B}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>

--- a/data/휴인미 member 복사본.xlsx
+++ b/data/휴인미 member 복사본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyuns\H\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB13CC0-48C8-4425-BA79-3641F6154409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3E2E8-1A82-4563-9AC9-AED607D5E28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{BD768E22-9474-4B2F-914B-A959EA682A3B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -155,25 +155,16 @@
     <t>2024-12-07 15:10:01.323891</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>임응수</t>
   </si>
   <si>
     <t>2024-12-07 15:11:48.464033</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>김찬우</t>
   </si>
   <si>
     <t>2024-12-07 15:12:57.694814</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>김경연</t>
@@ -208,12 +199,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -222,11 +228,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,7 +575,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -578,383 +587,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C6" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>23</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C8" s="2">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B10" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11" s="2">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C12" s="2">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B17" s="2">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="1">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="1">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="1">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="1">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="C19" s="2">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="1">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="1">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
